--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Il1b-Il1r1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Il1b-Il1r1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,16 +79,16 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>Il1b</t>
+  </si>
+  <si>
+    <t>Il1r1</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Il1b</t>
-  </si>
-  <si>
-    <t>Il1r1</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,31 +519,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
-      </c>
-      <c r="C2" t="s">
-        <v>23</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1413.335253</v>
+        <v>0.1046376666666667</v>
       </c>
       <c r="H2">
-        <v>4240.005759</v>
+        <v>0.313913</v>
       </c>
       <c r="I2">
-        <v>0.9999668843963775</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.9999668843963775</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.175804666666667</v>
+        <v>5.828378333333333</v>
       </c>
       <c r="N2">
-        <v>21.527414</v>
+        <v>17.485135</v>
       </c>
       <c r="O2">
-        <v>0.1618789277039843</v>
+        <v>0.1413867973615592</v>
       </c>
       <c r="P2">
-        <v>0.1618789277039842</v>
+        <v>0.1413867973615592</v>
       </c>
       <c r="Q2">
-        <v>10141.81770404191</v>
+        <v>0.6098679092505556</v>
       </c>
       <c r="R2">
-        <v>91276.35933637722</v>
+        <v>5.488811183255</v>
       </c>
       <c r="S2">
-        <v>0.1618735669855796</v>
+        <v>0.1413867973615592</v>
       </c>
       <c r="T2">
-        <v>0.1618735669855796</v>
+        <v>0.1413867973615592</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +581,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>23</v>
       </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1413.335253</v>
+        <v>0.1046376666666667</v>
       </c>
       <c r="H3">
-        <v>4240.005759</v>
+        <v>0.313913</v>
       </c>
       <c r="I3">
-        <v>0.9999668843963775</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.9999668843963775</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>74.764876</v>
       </c>
       <c r="O3">
-        <v>0.5622067730383848</v>
+        <v>0.604557320991465</v>
       </c>
       <c r="P3">
-        <v>0.5622067730383847</v>
+        <v>0.604557320991465</v>
       </c>
       <c r="Q3">
-        <v>35222.61164565787</v>
+        <v>2.607740724420889</v>
       </c>
       <c r="R3">
-        <v>317003.5048109209</v>
+        <v>23.469666519788</v>
       </c>
       <c r="S3">
-        <v>0.562188155221735</v>
+        <v>0.604557320991465</v>
       </c>
       <c r="T3">
-        <v>0.5621881552217349</v>
+        <v>0.604557320991465</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,31 +643,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1413.335253</v>
+        <v>0.1046376666666667</v>
       </c>
       <c r="H4">
-        <v>4240.005759</v>
+        <v>0.313913</v>
       </c>
       <c r="I4">
-        <v>0.9999668843963775</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.9999668843963775</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,214 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.23078966666667</v>
+        <v>10.47292833333333</v>
       </c>
       <c r="N4">
-        <v>36.692369</v>
+        <v>31.418785</v>
       </c>
       <c r="O4">
-        <v>0.2759142992576309</v>
+        <v>0.2540558816469758</v>
       </c>
       <c r="P4">
-        <v>0.2759142992576308</v>
+        <v>0.2540558816469758</v>
       </c>
       <c r="Q4">
-        <v>17286.20620792812</v>
+        <v>1.095862783967222</v>
       </c>
       <c r="R4">
-        <v>155575.8558713531</v>
+        <v>9.862765055704999</v>
       </c>
       <c r="S4">
-        <v>0.2759051621890629</v>
+        <v>0.2540558816469758</v>
       </c>
       <c r="T4">
-        <v>0.2759051621890629</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G5">
-        <v>0.04680500000000001</v>
-      </c>
-      <c r="H5">
-        <v>0.140415</v>
-      </c>
-      <c r="I5">
-        <v>3.311560362258399E-05</v>
-      </c>
-      <c r="J5">
-        <v>3.311560362258399E-05</v>
-      </c>
-      <c r="K5">
-        <v>3</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>7.175804666666667</v>
-      </c>
-      <c r="N5">
-        <v>21.527414</v>
-      </c>
-      <c r="O5">
-        <v>0.1618789277039843</v>
-      </c>
-      <c r="P5">
-        <v>0.1618789277039842</v>
-      </c>
-      <c r="Q5">
-        <v>0.3358635374233334</v>
-      </c>
-      <c r="R5">
-        <v>3.022771836810001</v>
-      </c>
-      <c r="S5">
-        <v>5.360718404694073E-06</v>
-      </c>
-      <c r="T5">
-        <v>5.360718404694072E-06</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G6">
-        <v>0.04680500000000001</v>
-      </c>
-      <c r="H6">
-        <v>0.140415</v>
-      </c>
-      <c r="I6">
-        <v>3.311560362258399E-05</v>
-      </c>
-      <c r="J6">
-        <v>3.311560362258399E-05</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>24.92162533333333</v>
-      </c>
-      <c r="N6">
-        <v>74.764876</v>
-      </c>
-      <c r="O6">
-        <v>0.5622067730383848</v>
-      </c>
-      <c r="P6">
-        <v>0.5622067730383847</v>
-      </c>
-      <c r="Q6">
-        <v>1.166456673726667</v>
-      </c>
-      <c r="R6">
-        <v>10.49811006354</v>
-      </c>
-      <c r="S6">
-        <v>1.861781664987119E-05</v>
-      </c>
-      <c r="T6">
-        <v>1.861781664987119E-05</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G7">
-        <v>0.04680500000000001</v>
-      </c>
-      <c r="H7">
-        <v>0.140415</v>
-      </c>
-      <c r="I7">
-        <v>3.311560362258399E-05</v>
-      </c>
-      <c r="J7">
-        <v>3.311560362258399E-05</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>12.23078966666667</v>
-      </c>
-      <c r="N7">
-        <v>36.692369</v>
-      </c>
-      <c r="O7">
-        <v>0.2759142992576309</v>
-      </c>
-      <c r="P7">
-        <v>0.2759142992576308</v>
-      </c>
-      <c r="Q7">
-        <v>0.5724621103483334</v>
-      </c>
-      <c r="R7">
-        <v>5.152158993135</v>
-      </c>
-      <c r="S7">
-        <v>9.137068568018724E-06</v>
-      </c>
-      <c r="T7">
-        <v>9.137068568018722E-06</v>
+        <v>0.2540558816469758</v>
       </c>
     </row>
   </sheetData>
